--- a/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="212">
   <si>
     <t>Ref Des</t>
   </si>
@@ -405,43 +405,19 @@
     <t>CE06ISSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
-    <t>CE06ISSM-00002-CPM1</t>
-  </si>
-  <si>
-    <t>CE06ISSM-RIC21-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CE06ISSM-00002-CPM2</t>
-  </si>
-  <si>
     <t>CE06ISSM-MFC31-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CE06ISSM-00002-CPM3</t>
   </si>
   <si>
     <t>CE06ISSM-SBD17-00-DCLENG000</t>
   </si>
   <si>
-    <t>CE06ISSM-00002-DCL17</t>
-  </si>
-  <si>
     <t>CE06ISSM-RID16-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CE06ISSM-00002-DCL16</t>
   </si>
   <si>
     <t>CE06ISSM-MFD35-00-DCLENG000</t>
   </si>
   <si>
-    <t>CE06ISSM-00002-DCL35</t>
-  </si>
-  <si>
     <t>CE06ISSM-MFD37-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CE06ISSM-00002-DCL37</t>
   </si>
   <si>
     <t>CE06ISSM-00003</t>
@@ -592,9 +568,6 @@
     <t>CE06ISSM-MFD37-07-ZPLSCC000</t>
   </si>
   <si>
-    <t>CE01ISSM-MOPAK</t>
-  </si>
-  <si>
     <t>Mooring OOIBARCODE</t>
   </si>
   <si>
@@ -663,6 +636,48 @@
   <si>
     <t>N00675</t>
   </si>
+  <si>
+    <t>CE06ISSM-00003-MOPAK</t>
+  </si>
+  <si>
+    <t>OL000215</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-CPM1</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-CPM3</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-DCL17</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-DCL16</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-DCL35</t>
+  </si>
+  <si>
+    <t>CE06ISSM-00003-DCL37</t>
+  </si>
+  <si>
+    <t>OL000216</t>
+  </si>
+  <si>
+    <t>OL000217</t>
+  </si>
+  <si>
+    <t>OL000218</t>
+  </si>
+  <si>
+    <t>OL000219</t>
+  </si>
+  <si>
+    <t>OL000220</t>
+  </si>
+  <si>
+    <t>OL000221</t>
+  </si>
 </sst>
 </file>
 
@@ -673,7 +688,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -848,6 +863,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1178,7 +1199,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1333,6 +1354,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1875,28 +1899,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" style="1"/>
     <col min="3" max="3" width="20" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1"/>
-    <col min="5" max="5" width="11.5546875" style="2"/>
-    <col min="6" max="6" width="11.33203125" style="3"/>
-    <col min="7" max="7" width="11.6640625" style="2"/>
-    <col min="8" max="8" width="11.6640625" style="1"/>
-    <col min="9" max="9" width="13.6640625" style="1"/>
-    <col min="10" max="10" width="14.109375" style="1"/>
-    <col min="11" max="11" width="11.5546875" style="1"/>
-    <col min="12" max="12" width="15.109375" style="1"/>
-    <col min="13" max="13" width="12.88671875" style="1"/>
-    <col min="14" max="14" width="13.5546875" style="1"/>
-    <col min="15" max="1026" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="11.28515625" style="3"/>
+    <col min="7" max="7" width="11.7109375" style="2"/>
+    <col min="8" max="8" width="11.7109375" style="1"/>
+    <col min="9" max="9" width="13.7109375" style="1"/>
+    <col min="10" max="10" width="14.140625" style="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="15.140625" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1"/>
+    <col min="15" max="1026" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1932,21 +1956,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D2" s="12">
         <v>3</v>
@@ -1959,16 +1983,16 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J2" s="18">
         <v>29</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17">
@@ -1986,37 +2010,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM226"/>
+  <dimension ref="A1:AMM225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="30" style="22" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="22"/>
-    <col min="13" max="13" width="12.5546875" style="22" customWidth="1"/>
-    <col min="14" max="1027" width="9.109375" style="22"/>
+    <col min="8" max="8" width="26.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="22"/>
+    <col min="13" max="13" width="12.5703125" style="22" customWidth="1"/>
+    <col min="14" max="1027" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>12</v>
@@ -2025,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>13</v>
@@ -2040,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -3067,18 +3091,18 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J3" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L3" s="22">
         <v>3</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>18</v>
@@ -3088,18 +3112,18 @@
       </c>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J4" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L4" s="22">
         <v>3</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N4" s="22" t="s">
         <v>19</v>
@@ -3109,18 +3133,18 @@
       </c>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J5" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L5" s="22">
         <v>3</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N5" s="22" t="s">
         <v>53</v>
@@ -3130,18 +3154,18 @@
       </c>
       <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J6" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L6" s="22">
         <v>3</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N6" s="22" t="s">
         <v>54</v>
@@ -3151,18 +3175,18 @@
       </c>
       <c r="P6" s="27"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J7" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L7" s="22">
         <v>3</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N7" s="22" t="s">
         <v>55</v>
@@ -3172,18 +3196,18 @@
       </c>
       <c r="P7" s="26"/>
     </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L8" s="22">
         <v>3</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>56</v>
@@ -3193,18 +3217,18 @@
       </c>
       <c r="P8" s="28"/>
     </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J9" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L9" s="22">
         <v>3</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>57</v>
@@ -3214,18 +3238,18 @@
       </c>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J10" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L10" s="22">
         <v>3</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>58</v>
@@ -3235,18 +3259,18 @@
       </c>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J11" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L11" s="22">
         <v>3</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>59</v>
@@ -3256,18 +3280,18 @@
       </c>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J12" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L12" s="22">
         <v>3</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>60</v>
@@ -3277,18 +3301,18 @@
       </c>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J13" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L13" s="22">
         <v>3</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>61</v>
@@ -3298,18 +3322,18 @@
       </c>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J14" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L14" s="22">
         <v>3</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>62</v>
@@ -3319,18 +3343,18 @@
       </c>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J15" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L15" s="22">
         <v>3</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>63</v>
@@ -3340,18 +3364,18 @@
       </c>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J16" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L16" s="22">
         <v>3</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>64</v>
@@ -3361,18 +3385,18 @@
       </c>
       <c r="P16"/>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J17" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L17" s="22">
         <v>3</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>65</v>
@@ -3382,18 +3406,18 @@
       </c>
       <c r="P17"/>
     </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L18" s="22">
         <v>3</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>66</v>
@@ -3403,18 +3427,18 @@
       </c>
       <c r="P18"/>
     </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L19" s="22">
         <v>3</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>67</v>
@@ -3424,18 +3448,18 @@
       </c>
       <c r="P19"/>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L20" s="22">
         <v>3</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>68</v>
@@ -3445,18 +3469,18 @@
       </c>
       <c r="P20"/>
     </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J21" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L21" s="22">
         <v>3</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>69</v>
@@ -3466,18 +3490,18 @@
       </c>
       <c r="P21"/>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J22" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L22" s="22">
         <v>3</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>70</v>
@@ -3487,18 +3511,18 @@
       </c>
       <c r="P22"/>
     </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J23" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L23" s="22">
         <v>3</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>71</v>
@@ -3508,18 +3532,18 @@
       </c>
       <c r="P23"/>
     </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J24" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L24" s="22">
         <v>3</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>72</v>
@@ -3529,18 +3553,18 @@
       </c>
       <c r="P24"/>
     </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J25" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L25" s="22">
         <v>3</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>73</v>
@@ -3550,18 +3574,18 @@
       </c>
       <c r="P25"/>
     </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L26" s="22">
         <v>3</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>74</v>
@@ -3571,7 +3595,7 @@
       </c>
       <c r="P26"/>
     </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -3579,12 +3603,12 @@
       <c r="O27" s="23"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J28" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L28" s="22">
         <v>3</v>
@@ -3600,12 +3624,12 @@
       </c>
       <c r="P28"/>
     </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J29" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L29" s="22">
         <v>3</v>
@@ -3621,12 +3645,12 @@
       </c>
       <c r="P29"/>
     </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J30" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L30" s="22">
         <v>3</v>
@@ -3642,12 +3666,12 @@
       </c>
       <c r="P30"/>
     </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J31" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L31" s="22">
         <v>3</v>
@@ -3663,12 +3687,12 @@
       </c>
       <c r="P31"/>
     </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J32" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L32" s="22">
         <v>3</v>
@@ -3684,12 +3708,12 @@
       </c>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J33" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L33" s="22">
         <v>3</v>
@@ -3705,12 +3729,12 @@
       </c>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J34" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L34" s="22">
         <v>3</v>
@@ -3725,15 +3749,15 @@
         <v>124</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J35" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L35" s="22">
         <v>3</v>
@@ -3751,12 +3775,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J36" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L36" s="22">
         <v>3</v>
@@ -3771,15 +3795,15 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J37" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L37" s="22">
         <v>3</v>
@@ -3797,7 +3821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3807,21 +3831,24 @@
       <c r="H38" s="23"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D39" s="22">
         <v>3</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>183</v>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>198</v>
       </c>
       <c r="H39" s="47"/>
       <c r="I39" s="22" t="s">
@@ -4844,7 +4871,7 @@
       <c r="AMK39"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -5870,24 +5897,24 @@
       <c r="AMK40"/>
       <c r="AML40"/>
     </row>
-    <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D41" s="22">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>18</v>
@@ -6913,24 +6940,24 @@
       <c r="AMK41"/>
       <c r="AML41"/>
     </row>
-    <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D42" s="22">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>19</v>
@@ -7956,7 +7983,7 @@
       <c r="AMK42"/>
       <c r="AML42"/>
     </row>
-    <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -8982,24 +9009,24 @@
       <c r="AMK43"/>
       <c r="AML43"/>
     </row>
-    <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D44" s="22">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>18</v>
@@ -9009,24 +9036,24 @@
       </c>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D45" s="22">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>19</v>
@@ -9036,24 +9063,24 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D46" s="22">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>53</v>
@@ -9063,24 +9090,24 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D47" s="22">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>54</v>
@@ -9090,24 +9117,24 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D48" s="22">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>55</v>
@@ -9117,24 +9144,24 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D49" s="22">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>56</v>
@@ -9144,24 +9171,24 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D50" s="22">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>57</v>
@@ -9171,24 +9198,24 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D51" s="22">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>58</v>
@@ -9198,24 +9225,24 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D52" s="22">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>59</v>
@@ -9225,24 +9252,24 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D53" s="22">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>60</v>
@@ -9252,24 +9279,24 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D54" s="22">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>61</v>
@@ -9279,24 +9306,24 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D55" s="22">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>62</v>
@@ -9306,24 +9333,24 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D56" s="22">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>63</v>
@@ -9333,24 +9360,24 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="22">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>64</v>
@@ -9360,24 +9387,24 @@
       </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D58" s="22">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>65</v>
@@ -9387,24 +9414,24 @@
       </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D59" s="22">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>66</v>
@@ -9414,24 +9441,24 @@
       </c>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D60" s="22">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>67</v>
@@ -9441,24 +9468,24 @@
       </c>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D61" s="22">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G61" s="22" t="s">
         <v>68</v>
@@ -9468,24 +9495,24 @@
       </c>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D62" s="22">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G62" s="22" t="s">
         <v>69</v>
@@ -9495,24 +9522,24 @@
       </c>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D63" s="22">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>70</v>
@@ -9522,24 +9549,24 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D64" s="22">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>71</v>
@@ -9549,24 +9576,24 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" s="22">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>72</v>
@@ -9576,24 +9603,24 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D66" s="22">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>73</v>
@@ -9603,24 +9630,24 @@
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D67" s="22">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>74</v>
@@ -9630,7 +9657,7 @@
       </c>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -9640,21 +9667,21 @@
       <c r="H68" s="23"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D69" s="22">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F69" s="43">
         <v>480</v>
@@ -9667,21 +9694,21 @@
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D70" s="22">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F70" s="43">
         <v>480</v>
@@ -9694,21 +9721,21 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D71" s="22">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F71" s="43">
         <v>480</v>
@@ -9717,40 +9744,40 @@
         <v>77</v>
       </c>
       <c r="H71" s="46" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D72" s="22">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F72" s="48">
         <v>480</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H72" s="48" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -9760,21 +9787,21 @@
       <c r="H73" s="23"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D74" s="22">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F74" s="43">
         <v>1121</v>
@@ -9787,21 +9814,21 @@
       </c>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D75" s="22">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F75" s="43">
         <v>1121</v>
@@ -9815,21 +9842,21 @@
       <c r="I75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D76" s="22">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F76" s="43">
         <v>1121</v>
@@ -9843,21 +9870,21 @@
       <c r="I76"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D77" s="22">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F77" s="43">
         <v>1121</v>
@@ -9870,21 +9897,21 @@
       </c>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D78" s="22">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F78" s="43">
         <v>1121</v>
@@ -9897,21 +9924,21 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D79" s="22">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F79" s="43">
         <v>1121</v>
@@ -9924,21 +9951,21 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D80" s="22">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F80" s="43">
         <v>1121</v>
@@ -9950,24 +9977,24 @@
         <v>124</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D81" s="22">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F81" s="43">
         <v>1121</v>
@@ -9982,21 +10009,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D82" s="22">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F82" s="43">
         <v>1121</v>
@@ -10008,24 +10035,24 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D83" s="22">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F83" s="43">
         <v>1121</v>
@@ -10040,7 +10067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -10050,21 +10077,21 @@
       <c r="H84" s="23"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D85" s="22">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F85" s="43">
         <v>287</v>
@@ -10079,21 +10106,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D86" s="22">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F86" s="43">
         <v>287</v>
@@ -10108,21 +10135,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D87" s="22">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F87" s="43">
         <v>287</v>
@@ -10135,21 +10162,21 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D88" s="22">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F88" s="43">
         <v>287</v>
@@ -10158,25 +10185,25 @@
         <v>83</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D89" s="22">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F89" s="43">
         <v>287</v>
@@ -10185,25 +10212,25 @@
         <v>84</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D90" s="22">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F90" s="43">
         <v>287</v>
@@ -10212,25 +10239,25 @@
         <v>85</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D91" s="22">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F91" s="43">
         <v>287</v>
@@ -10239,11 +10266,11 @@
         <v>86</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -10253,30 +10280,30 @@
       <c r="H92" s="23"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D93" s="22">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="H93" s="51" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -11296,30 +11323,30 @@
       <c r="AMK93"/>
       <c r="AML93"/>
     </row>
-    <row r="94" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D94" s="22">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G94" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H94" s="51" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -12339,24 +12366,24 @@
       <c r="AMK94"/>
       <c r="AML94"/>
     </row>
-    <row r="95" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D95" s="22">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F95" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>34</v>
@@ -13382,30 +13409,30 @@
       <c r="AMK95"/>
       <c r="AML95"/>
     </row>
-    <row r="96" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D96" s="22">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F96" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H96" s="51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -14426,30 +14453,30 @@
       <c r="AMK96"/>
       <c r="AML96"/>
     </row>
-    <row r="97" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D97" s="22">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F97" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G97" s="22" t="s">
         <v>36</v>
       </c>
       <c r="H97" s="51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -15470,30 +15497,30 @@
       <c r="AMK97"/>
       <c r="AML97"/>
     </row>
-    <row r="98" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D98" s="22">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F98" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H98" s="51" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -16514,30 +16541,30 @@
       <c r="AMK98"/>
       <c r="AML98"/>
     </row>
-    <row r="99" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D99" s="22">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F99" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H99" s="51" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -17558,33 +17585,33 @@
       <c r="AMK99"/>
       <c r="AML99"/>
     </row>
-    <row r="100" spans="1:1026" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1026" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D100" s="30">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G100" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H100" s="51" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -17594,24 +17621,24 @@
       <c r="H101" s="23"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D102" s="22">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G102" s="22" t="s">
         <v>118</v>
@@ -17621,24 +17648,24 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D103" s="22">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G103" s="22" t="s">
         <v>119</v>
@@ -17649,24 +17676,24 @@
       <c r="I103"/>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D104" s="22">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G104" s="22" t="s">
         <v>120</v>
@@ -17676,24 +17703,24 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D105" s="22">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G105" s="22" t="s">
         <v>121</v>
@@ -17703,24 +17730,24 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D106" s="22">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G106" s="22" t="s">
         <v>22</v>
@@ -17729,27 +17756,27 @@
         <v>19706</v>
       </c>
       <c r="I106" s="31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D107" s="22">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G107" s="22" t="s">
         <v>122</v>
@@ -17758,27 +17785,27 @@
         <v>34</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D108" s="22">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G108" s="22" t="s">
         <v>24</v>
@@ -17788,24 +17815,24 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D109" s="22">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F109" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G109" s="22" t="s">
         <v>123</v>
@@ -17815,7 +17842,7 @@
       </c>
       <c r="I109" s="33"/>
     </row>
-    <row r="110" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -17825,24 +17852,24 @@
       <c r="H110" s="23"/>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D111" s="22">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G111" s="22" t="s">
         <v>22</v>
@@ -18868,24 +18895,24 @@
       <c r="AMK111"/>
       <c r="AML111"/>
     </row>
-    <row r="112" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D112" s="22">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G112" s="22" t="s">
         <v>23</v>
@@ -19911,24 +19938,24 @@
       <c r="AMK112"/>
       <c r="AML112"/>
     </row>
-    <row r="113" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D113" s="22">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>24</v>
@@ -20954,24 +20981,24 @@
       <c r="AMK113"/>
       <c r="AML113"/>
     </row>
-    <row r="114" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D114" s="22">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F114" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>25</v>
@@ -21997,24 +22024,24 @@
       <c r="AMK114"/>
       <c r="AML114"/>
     </row>
-    <row r="115" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D115" s="22">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>26</v>
@@ -23040,24 +23067,24 @@
       <c r="AMK115"/>
       <c r="AML115"/>
     </row>
-    <row r="116" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D116" s="22">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>27</v>
@@ -24083,24 +24110,24 @@
       <c r="AMK116"/>
       <c r="AML116"/>
     </row>
-    <row r="117" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D117" s="25">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>28</v>
@@ -24109,7 +24136,7 @@
         <v>35</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -25128,7 +25155,7 @@
       <c r="AMK117"/>
       <c r="AML117"/>
     </row>
-    <row r="118" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -26154,21 +26181,21 @@
       <c r="AMK118"/>
       <c r="AML118"/>
     </row>
-    <row r="119" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D119" s="22">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F119" s="43">
         <v>243</v>
@@ -26177,25 +26204,25 @@
         <v>88</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D120" s="22">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F120" s="43">
         <v>243</v>
@@ -26204,25 +26231,25 @@
         <v>89</v>
       </c>
       <c r="H120" s="53" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D121" s="22">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F121" s="43">
         <v>243</v>
@@ -26231,11 +26258,11 @@
         <v>90</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -26245,24 +26272,24 @@
       <c r="H122" s="23"/>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D123" s="22">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F123" s="57" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>18</v>
@@ -27289,24 +27316,24 @@
       <c r="AMK123"/>
       <c r="AML123"/>
     </row>
-    <row r="124" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D124" s="22">
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F124" s="57" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G124" s="22" t="s">
         <v>19</v>
@@ -28333,7 +28360,7 @@
       <c r="AMK124"/>
       <c r="AML124"/>
     </row>
-    <row r="125" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -29360,21 +29387,21 @@
       <c r="AMK125"/>
       <c r="AML125"/>
     </row>
-    <row r="126" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B126" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D126" s="22">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F126" s="25">
         <v>21517</v>
@@ -29386,24 +29413,24 @@
         <v>29000</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D127" s="22">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F127" s="43">
         <v>21517</v>
@@ -29416,21 +29443,21 @@
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D128" s="22">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F128" s="43">
         <v>21517</v>
@@ -29443,21 +29470,21 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D129" s="22">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F129" s="43">
         <v>21517</v>
@@ -29470,21 +29497,21 @@
       </c>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D130" s="22">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F130" s="43">
         <v>21517</v>
@@ -29497,21 +29524,21 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D131" s="22">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F131" s="43">
         <v>21517</v>
@@ -29524,21 +29551,21 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B132" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D132" s="22">
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F132" s="43">
         <v>21517</v>
@@ -29551,7 +29578,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -29561,7 +29588,7 @@
       <c r="H133" s="23"/>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -29574,17 +29601,17 @@
         <v>125</v>
       </c>
       <c r="K134" s="29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L134" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O134" s="29"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -29595,24 +29622,24 @@
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D136" s="22">
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F136" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G136" s="22" t="s">
         <v>18</v>
@@ -29622,24 +29649,24 @@
       </c>
       <c r="I136"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D137" s="22">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F137" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>19</v>
@@ -29649,24 +29676,24 @@
       </c>
       <c r="I137"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D138" s="22">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F138" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>53</v>
@@ -29676,24 +29703,24 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D139" s="22">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F139" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>54</v>
@@ -29703,24 +29730,24 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D140" s="22">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>55</v>
@@ -29730,24 +29757,24 @@
       </c>
       <c r="I140"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D141" s="22">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>56</v>
@@ -29757,24 +29784,24 @@
       </c>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D142" s="22">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>57</v>
@@ -29784,24 +29811,24 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B143" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D143" s="22">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F143" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>58</v>
@@ -29811,24 +29838,24 @@
       </c>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B144" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D144" s="22">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F144" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G144" s="22" t="s">
         <v>59</v>
@@ -29838,24 +29865,24 @@
       </c>
       <c r="I144"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D145" s="22">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F145" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G145" s="22" t="s">
         <v>60</v>
@@ -29865,24 +29892,24 @@
       </c>
       <c r="I145"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D146" s="22">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F146" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G146" s="22" t="s">
         <v>61</v>
@@ -29892,24 +29919,24 @@
       </c>
       <c r="I146"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D147" s="22">
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F147" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G147" s="22" t="s">
         <v>62</v>
@@ -29919,24 +29946,24 @@
       </c>
       <c r="I147"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B148" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D148" s="22">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F148" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G148" s="22" t="s">
         <v>63</v>
@@ -29946,24 +29973,24 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D149" s="22">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F149" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>64</v>
@@ -29973,24 +30000,24 @@
       </c>
       <c r="I149"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D150" s="22">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F150" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G150" s="22" t="s">
         <v>65</v>
@@ -30000,24 +30027,24 @@
       </c>
       <c r="I150"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D151" s="22">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G151" s="22" t="s">
         <v>66</v>
@@ -30027,24 +30054,24 @@
       </c>
       <c r="I151"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D152" s="22">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G152" s="22" t="s">
         <v>67</v>
@@ -30054,24 +30081,24 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D153" s="22">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G153" s="22" t="s">
         <v>68</v>
@@ -30081,24 +30108,24 @@
       </c>
       <c r="I153"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D154" s="22">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F154" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G154" s="22" t="s">
         <v>69</v>
@@ -30108,24 +30135,24 @@
       </c>
       <c r="I154"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D155" s="22">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F155" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G155" s="22" t="s">
         <v>70</v>
@@ -30135,24 +30162,24 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D156" s="22">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G156" s="22" t="s">
         <v>71</v>
@@ -30162,24 +30189,24 @@
       </c>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D157" s="22">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G157" s="22" t="s">
         <v>72</v>
@@ -30189,24 +30216,24 @@
       </c>
       <c r="I157"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D158" s="22">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G158" s="22" t="s">
         <v>73</v>
@@ -30216,24 +30243,24 @@
       </c>
       <c r="I158"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D159" s="22">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G159" s="22" t="s">
         <v>74</v>
@@ -30243,7 +30270,7 @@
       </c>
       <c r="I159"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -30253,21 +30280,21 @@
       <c r="H160" s="23"/>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D161" s="22">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F161" s="43">
         <v>484</v>
@@ -30280,21 +30307,21 @@
       </c>
       <c r="I161"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D162" s="22">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F162" s="43">
         <v>484</v>
@@ -30307,21 +30334,21 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D163" s="22">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F163" s="43">
         <v>484</v>
@@ -30330,40 +30357,40 @@
         <v>77</v>
       </c>
       <c r="H163" s="46" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D164" s="22">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F164" s="43">
         <v>484</v>
       </c>
       <c r="G164" s="29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I164" s="29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -30373,33 +30400,33 @@
       <c r="H165" s="23"/>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F166" s="25"/>
       <c r="I166"/>
       <c r="J166" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L166" s="22">
         <v>3</v>
       </c>
       <c r="M166" s="36" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N166" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F167" s="25"/>
       <c r="I167"/>
       <c r="J167" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K167" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L167" s="22">
         <v>3</v>
@@ -30409,14 +30436,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F168" s="25"/>
       <c r="I168"/>
       <c r="J168" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L168" s="22">
         <v>3</v>
@@ -30426,14 +30453,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F169" s="25"/>
       <c r="I169"/>
       <c r="J169" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K169" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L169" s="22">
         <v>3</v>
@@ -30443,14 +30470,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F170" s="25"/>
       <c r="I170"/>
       <c r="J170" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L170" s="22">
         <v>3</v>
@@ -30460,14 +30487,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F171" s="25"/>
       <c r="I171"/>
       <c r="J171" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K171" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L171" s="22">
         <v>3</v>
@@ -30477,14 +30504,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F172" s="25"/>
       <c r="I172"/>
       <c r="J172" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K172" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L172" s="22">
         <v>3</v>
@@ -30494,14 +30521,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F173" s="25"/>
       <c r="I173"/>
       <c r="J173" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K173" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L173" s="22">
         <v>3</v>
@@ -30511,7 +30538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -30521,7 +30548,7 @@
       <c r="H174" s="23"/>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F175" s="24"/>
       <c r="H175" s="28"/>
       <c r="I175"/>
@@ -30529,19 +30556,19 @@
         <v>124</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L175" s="22">
         <v>3</v>
       </c>
       <c r="M175" s="54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N175" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F176" s="24"/>
       <c r="H176" s="28"/>
       <c r="I176"/>
@@ -30549,7 +30576,7 @@
         <v>124</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L176" s="22">
         <v>3</v>
@@ -30559,7 +30586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F177" s="24"/>
       <c r="H177" s="28"/>
       <c r="I177"/>
@@ -30567,7 +30594,7 @@
         <v>124</v>
       </c>
       <c r="K177" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L177" s="22">
         <v>3</v>
@@ -30577,7 +30604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="178" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F178" s="24"/>
       <c r="H178" s="28"/>
       <c r="I178"/>
@@ -30585,7 +30612,7 @@
         <v>124</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L178" s="22">
         <v>3</v>
@@ -30595,7 +30622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="179" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F179" s="24"/>
       <c r="H179" s="28"/>
       <c r="I179" s="31"/>
@@ -30603,7 +30630,7 @@
         <v>124</v>
       </c>
       <c r="K179" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L179" s="22">
         <v>3</v>
@@ -30613,7 +30640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F180" s="24"/>
       <c r="H180" s="28"/>
       <c r="I180" s="32"/>
@@ -30621,7 +30648,7 @@
         <v>124</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L180" s="22">
         <v>3</v>
@@ -30631,7 +30658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F181" s="24"/>
       <c r="H181" s="28"/>
       <c r="I181" s="32"/>
@@ -30639,7 +30666,7 @@
         <v>124</v>
       </c>
       <c r="K181" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L181" s="22">
         <v>3</v>
@@ -30649,7 +30676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F182" s="24"/>
       <c r="H182" s="28"/>
       <c r="I182" s="33"/>
@@ -30657,7 +30684,7 @@
         <v>124</v>
       </c>
       <c r="K182" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L182" s="22">
         <v>3</v>
@@ -30667,7 +30694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -30676,20 +30703,20 @@
       <c r="F183"/>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F184" s="25"/>
       <c r="I184"/>
       <c r="J184" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L184" s="22">
         <v>3</v>
       </c>
       <c r="M184" s="36" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N184" s="22" t="s">
         <v>22</v>
@@ -31709,14 +31736,14 @@
       <c r="AMK184"/>
       <c r="AML184"/>
     </row>
-    <row r="185" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F185" s="25"/>
       <c r="I185"/>
       <c r="J185" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K185" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L185" s="22">
         <v>3</v>
@@ -32740,14 +32767,14 @@
       <c r="AMK185"/>
       <c r="AML185"/>
     </row>
-    <row r="186" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F186" s="25"/>
       <c r="I186"/>
       <c r="J186" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K186" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L186" s="22">
         <v>3</v>
@@ -33771,14 +33798,14 @@
       <c r="AMK186"/>
       <c r="AML186"/>
     </row>
-    <row r="187" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F187" s="25"/>
       <c r="I187"/>
       <c r="J187" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K187" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L187" s="22">
         <v>3</v>
@@ -34802,7 +34829,7 @@
       <c r="AMK187"/>
       <c r="AML187"/>
     </row>
-    <row r="188" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F188" s="25"/>
       <c r="H188" s="28"/>
       <c r="I188"/>
@@ -34810,7 +34837,7 @@
         <v>30</v>
       </c>
       <c r="K188" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L188" s="22">
         <v>3</v>
@@ -35834,7 +35861,7 @@
       <c r="AMK188"/>
       <c r="AML188"/>
     </row>
-    <row r="189" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F189" s="25"/>
       <c r="H189" s="28"/>
       <c r="I189"/>
@@ -35842,7 +35869,7 @@
         <v>30</v>
       </c>
       <c r="K189" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L189" s="22">
         <v>3</v>
@@ -36866,7 +36893,7 @@
       <c r="AMK189"/>
       <c r="AML189"/>
     </row>
-    <row r="190" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
@@ -36876,13 +36903,13 @@
       <c r="G190" s="25"/>
       <c r="H190" s="28"/>
       <c r="J190" s="29" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K190" s="25" t="s">
         <v>30</v>
       </c>
       <c r="L190" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M190" s="25">
         <v>3</v>
@@ -36896,7 +36923,7 @@
       </c>
       <c r="AMM190" s="25"/>
     </row>
-    <row r="191" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -37923,24 +37950,24 @@
       <c r="AMK191"/>
       <c r="AML191"/>
     </row>
-    <row r="192" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B192" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D192" s="22">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F192" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G192" s="22" t="s">
         <v>99</v>
@@ -37949,27 +37976,27 @@
         <v>599.74130000000002</v>
       </c>
       <c r="I192" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D193" s="22">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F193" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G193" s="22" t="s">
         <v>100</v>
@@ -37978,27 +38005,27 @@
         <v>10.060029999999999</v>
       </c>
       <c r="I193" s="38" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D194" s="22">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F194" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G194" s="22" t="s">
         <v>101</v>
@@ -38008,24 +38035,24 @@
       </c>
       <c r="I194" s="38"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D195" s="22">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F195" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G195" s="22" t="s">
         <v>102</v>
@@ -38035,24 +38062,24 @@
       </c>
       <c r="I195" s="38"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D196" s="22">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F196" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G196" s="22" t="s">
         <v>103</v>
@@ -38062,24 +38089,24 @@
       </c>
       <c r="I196"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D197" s="22">
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F197" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G197" s="22" t="s">
         <v>104</v>
@@ -38091,24 +38118,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D198" s="22">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F198" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G198" s="22" t="s">
         <v>105</v>
@@ -38117,27 +38144,27 @@
         <v>-0.17299999999999999</v>
       </c>
       <c r="I198" s="39" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B199" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D199" s="22">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F199" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G199" s="22" t="s">
         <v>106</v>
@@ -38149,24 +38176,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B200" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D200" s="22">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F200" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G200" s="22" t="s">
         <v>107</v>
@@ -38176,24 +38203,24 @@
       </c>
       <c r="I200"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D201" s="22">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F201" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G201" s="22" t="s">
         <v>108</v>
@@ -38203,24 +38230,24 @@
       </c>
       <c r="I201"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D202" s="22">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F202" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G202" s="22" t="s">
         <v>109</v>
@@ -38230,24 +38257,24 @@
       </c>
       <c r="I202"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B203" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D203" s="22">
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F203" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G203" s="22" t="s">
         <v>110</v>
@@ -38257,24 +38284,24 @@
       </c>
       <c r="I203"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B204" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D204" s="22">
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F204" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G204" s="22" t="s">
         <v>111</v>
@@ -38284,24 +38311,24 @@
       </c>
       <c r="I204"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D205" s="22">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F205" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G205" s="22" t="s">
         <v>112</v>
@@ -38311,24 +38338,24 @@
       </c>
       <c r="I205"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B206" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D206" s="22">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F206" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G206" s="22" t="s">
         <v>113</v>
@@ -38338,24 +38365,24 @@
       </c>
       <c r="I206"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B207" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D207" s="22">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F207" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G207" s="22" t="s">
         <v>114</v>
@@ -38365,24 +38392,24 @@
       </c>
       <c r="I207"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D208" s="22">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F208" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G208" s="22" t="s">
         <v>115</v>
@@ -38392,24 +38419,24 @@
       </c>
       <c r="I208"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B209" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D209" s="22">
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F209" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G209" s="22" t="s">
         <v>116</v>
@@ -38419,7 +38446,7 @@
       </c>
       <c r="I209"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -38429,21 +38456,21 @@
       <c r="H210" s="40"/>
       <c r="I210"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D211" s="22">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F211" s="43">
         <v>11084</v>
@@ -38456,21 +38483,21 @@
       </c>
       <c r="I211"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B212" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D212" s="22">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F212" s="43">
         <v>11084</v>
@@ -38483,7 +38510,7 @@
       </c>
       <c r="I212"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -38493,21 +38520,21 @@
       <c r="H213" s="23"/>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D214" s="29">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F214" s="48">
         <v>55097</v>
@@ -38518,7 +38545,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -38526,7 +38553,7 @@
       <c r="E215"/>
       <c r="F215"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -38535,7 +38562,7 @@
       <c r="F216"/>
       <c r="I216"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -38543,7 +38570,7 @@
       <c r="E217"/>
       <c r="F217"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -38552,150 +38579,150 @@
       <c r="F218"/>
       <c r="I218"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D219" s="22">
         <v>3</v>
       </c>
+      <c r="E219" t="s">
+        <v>206</v>
+      </c>
       <c r="F219" s="42" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="I219" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J220" s="22" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B220" t="s">
+        <v>177</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D220" s="22">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>207</v>
+      </c>
+      <c r="F220" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="I220" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221" s="42"/>
+      <c r="I221"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K220" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L220" s="22">
+      <c r="B222" t="s">
+        <v>177</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D222" s="22">
         <v>3</v>
       </c>
-      <c r="M220" s="42" t="s">
+      <c r="E222" t="s">
+        <v>208</v>
+      </c>
+      <c r="F222" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="I222" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="O220" s="34"/>
-      <c r="P220" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A221" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B221" t="s">
-        <v>186</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D221" s="22">
-        <v>3</v>
-      </c>
-      <c r="F221" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="I221" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222" s="42"/>
-      <c r="I222"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A223" s="22" t="s">
+      <c r="B223" t="s">
+        <v>177</v>
+      </c>
+      <c r="C223" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="B223" t="s">
-        <v>186</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="D223" s="22">
         <v>3</v>
       </c>
+      <c r="E223" t="s">
+        <v>209</v>
+      </c>
       <c r="F223" s="42" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I223" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B224" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D224" s="22">
         <v>3</v>
       </c>
+      <c r="E224" t="s">
+        <v>210</v>
+      </c>
       <c r="F224" s="42" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="I224" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B225" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D225" s="22">
         <v>3</v>
       </c>
+      <c r="E225" t="s">
+        <v>211</v>
+      </c>
       <c r="F225" s="42" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="I225" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B226" t="s">
-        <v>186</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D226" s="22">
-        <v>3</v>
-      </c>
-      <c r="F226" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I226" s="22" t="s">
         <v>125</v>
       </c>
     </row>
@@ -38711,12 +38738,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="41">
         <v>-3.0013999999999999E-2</v>
       </c>
@@ -38823,7 +38850,7 @@
         <v>1.2145E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>-2.802E-2</v>
       </c>
@@ -38930,7 +38957,7 @@
         <v>1.0562E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>-2.5281000000000001E-2</v>
       </c>
@@ -39037,7 +39064,7 @@
         <v>8.8409999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>-2.3630000000000002E-2</v>
       </c>
@@ -39144,7 +39171,7 @@
         <v>7.3540000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>-2.102E-2</v>
       </c>
@@ -39251,7 +39278,7 @@
         <v>6.5370000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>-1.8700000000000001E-2</v>
       </c>
@@ -39358,7 +39385,7 @@
         <v>5.5760000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>-1.8024999999999999E-2</v>
       </c>
@@ -39465,7 +39492,7 @@
         <v>4.7390000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>-1.6892000000000001E-2</v>
       </c>
@@ -39572,7 +39599,7 @@
         <v>4.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>-1.5481E-2</v>
       </c>
@@ -39679,7 +39706,7 @@
         <v>4.1479999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>-1.468E-2</v>
       </c>
@@ -39786,7 +39813,7 @@
         <v>3.7429999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>-1.3712999999999999E-2</v>
       </c>
@@ -39893,7 +39920,7 @@
         <v>3.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>-1.3169999999999999E-2</v>
       </c>
@@ -40000,7 +40027,7 @@
         <v>3.215E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>-1.2585000000000001E-2</v>
       </c>
@@ -40107,7 +40134,7 @@
         <v>3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>-1.1757E-2</v>
       </c>
@@ -40214,7 +40241,7 @@
         <v>2.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>-1.1204E-2</v>
       </c>
@@ -40321,7 +40348,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -40428,7 +40455,7 @@
         <v>2.8549999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>-1.0213E-2</v>
       </c>
@@ -40535,7 +40562,7 @@
         <v>2.6489999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>-9.8099999999999993E-3</v>
       </c>
@@ -40642,7 +40669,7 @@
         <v>2.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>-9.6369999999999997E-3</v>
       </c>
@@ -40749,7 +40776,7 @@
         <v>2.5720000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>-9.3390000000000001E-3</v>
       </c>
@@ -40856,7 +40883,7 @@
         <v>2.447E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>-8.8649999999999996E-3</v>
       </c>
@@ -40963,7 +40990,7 @@
         <v>2.4350000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>-8.7159999999999998E-3</v>
       </c>
@@ -41070,7 +41097,7 @@
         <v>2.477E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>-8.4060000000000003E-3</v>
       </c>
@@ -41177,7 +41204,7 @@
         <v>2.2239999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>-8.3129999999999992E-3</v>
       </c>
@@ -41284,7 +41311,7 @@
         <v>2.4130000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>-7.9509999999999997E-3</v>
       </c>
@@ -41391,7 +41418,7 @@
         <v>2.3570000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>-7.9310000000000005E-3</v>
       </c>
@@ -41498,7 +41525,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>-7.5909999999999997E-3</v>
       </c>
@@ -41605,7 +41632,7 @@
         <v>2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>-7.2950000000000003E-3</v>
       </c>
@@ -41712,7 +41739,7 @@
         <v>2.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>-7.0939999999999996E-3</v>
       </c>
@@ -41819,7 +41846,7 @@
         <v>2.238E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>-7.2820000000000003E-3</v>
       </c>
@@ -41926,7 +41953,7 @@
         <v>2.2460000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>-7.2960000000000004E-3</v>
       </c>
@@ -42033,7 +42060,7 @@
         <v>2.209E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>-7.3000000000000001E-3</v>
       </c>
@@ -42140,7 +42167,7 @@
         <v>2.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>-6.8869999999999999E-3</v>
       </c>
@@ -42247,7 +42274,7 @@
         <v>2.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -42354,7 +42381,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>-6.3010000000000002E-3</v>
       </c>
@@ -42461,7 +42488,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>-5.9909999999999998E-3</v>
       </c>
@@ -42568,7 +42595,7 @@
         <v>2.248E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>-5.5490000000000001E-3</v>
       </c>
@@ -42675,7 +42702,7 @@
         <v>2.2190000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>-5.4200000000000003E-3</v>
       </c>
@@ -42782,7 +42809,7 @@
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>-5.2830000000000004E-3</v>
       </c>
@@ -42889,7 +42916,7 @@
         <v>2.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>-5.1110000000000001E-3</v>
       </c>
@@ -42996,7 +43023,7 @@
         <v>2.1080000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>-5.0899999999999999E-3</v>
       </c>
@@ -43103,7 +43130,7 @@
         <v>2.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>-4.9589999999999999E-3</v>
       </c>
@@ -43210,7 +43237,7 @@
         <v>1.9650000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>-5.117E-3</v>
       </c>
@@ -43317,7 +43344,7 @@
         <v>1.905E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>-5.241E-3</v>
       </c>
@@ -43424,7 +43451,7 @@
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>-5.4929999999999996E-3</v>
       </c>
@@ -43531,7 +43558,7 @@
         <v>1.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>-5.2859999999999999E-3</v>
       </c>
@@ -43638,7 +43665,7 @@
         <v>9.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>-5.1139999999999996E-3</v>
       </c>
@@ -43745,7 +43772,7 @@
         <v>9.1699999999999995E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>-4.9659999999999999E-3</v>
       </c>
@@ -43852,7 +43879,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>-4.9709999999999997E-3</v>
       </c>
@@ -43959,7 +43986,7 @@
         <v>7.5100000000000004E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>-4.9040000000000004E-3</v>
       </c>
@@ -44066,7 +44093,7 @@
         <v>7.7899999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>-4.8019999999999998E-3</v>
       </c>
@@ -44173,7 +44200,7 @@
         <v>7.0100000000000002E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>-4.7999999999999996E-3</v>
       </c>
@@ -44280,7 +44307,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>-4.8430000000000001E-3</v>
       </c>
@@ -44387,7 +44414,7 @@
         <v>7.5900000000000002E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>-4.8450000000000003E-3</v>
       </c>
@@ -44494,7 +44521,7 @@
         <v>7.7499999999999997E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>-4.7800000000000004E-3</v>
       </c>
@@ -44601,7 +44628,7 @@
         <v>8.1700000000000002E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>-4.7949999999999998E-3</v>
       </c>
@@ -44708,7 +44735,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>-4.7939999999999997E-3</v>
       </c>
@@ -44815,7 +44842,7 @@
         <v>8.2399999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>-4.7470000000000004E-3</v>
       </c>
@@ -44922,7 +44949,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>-4.7559999999999998E-3</v>
       </c>
@@ -45029,7 +45056,7 @@
         <v>9.1699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>-4.7930000000000004E-3</v>
       </c>
@@ -45136,7 +45163,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>-4.7819999999999998E-3</v>
       </c>
@@ -45243,7 +45270,7 @@
         <v>9.6400000000000001E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>-4.7619999999999997E-3</v>
       </c>
@@ -45350,7 +45377,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>-4.7629999999999999E-3</v>
       </c>
@@ -45457,7 +45484,7 @@
         <v>9.8700000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>-4.8149999999999998E-3</v>
       </c>
@@ -45564,7 +45591,7 @@
         <v>1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>-4.7920000000000003E-3</v>
       </c>
@@ -45671,7 +45698,7 @@
         <v>1.039E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>-4.8370000000000002E-3</v>
       </c>
@@ -45778,7 +45805,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>-4.9519999999999998E-3</v>
       </c>
@@ -45885,7 +45912,7 @@
         <v>1.067E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>-4.9220000000000002E-3</v>
       </c>
@@ -45992,7 +46019,7 @@
         <v>1.077E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>-4.9569999999999996E-3</v>
       </c>
@@ -46099,7 +46126,7 @@
         <v>1.106E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>-4.9069999999999999E-3</v>
       </c>
@@ -46206,7 +46233,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -46313,7 +46340,7 @@
         <v>1.042E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>-4.738E-3</v>
       </c>
@@ -46420,7 +46447,7 @@
         <v>1.065E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>-4.6290000000000003E-3</v>
       </c>
@@ -46527,7 +46554,7 @@
         <v>1.0169999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>-4.4270000000000004E-3</v>
       </c>
@@ -46634,7 +46661,7 @@
         <v>9.9299999999999996E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>-4.47E-3</v>
       </c>
@@ -46741,7 +46768,7 @@
         <v>9.9200000000000004E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>-4.5589999999999997E-3</v>
       </c>
@@ -46848,7 +46875,7 @@
         <v>9.6400000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>-4.4339999999999996E-3</v>
       </c>
@@ -46955,7 +46982,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>-4.437E-3</v>
       </c>
@@ -47062,7 +47089,7 @@
         <v>9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>-4.4149999999999997E-3</v>
       </c>
@@ -47169,7 +47196,7 @@
         <v>9.2199999999999997E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>-4.359E-3</v>
       </c>
@@ -47276,7 +47303,7 @@
         <v>9.1799999999999998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>-4.2659999999999998E-3</v>
       </c>
@@ -47383,7 +47410,7 @@
         <v>9.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>-4.0229999999999997E-3</v>
       </c>
@@ -47490,7 +47517,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>-4.1099999999999999E-3</v>
       </c>
@@ -47597,7 +47624,7 @@
         <v>9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>-4.1970000000000002E-3</v>
       </c>
@@ -47704,7 +47731,7 @@
         <v>9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>-4.1479999999999998E-3</v>
       </c>
@@ -47822,12 +47849,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="41">
         <v>6.9268999999999997E-2</v>
       </c>
@@ -47934,7 +47961,7 @@
         <v>-2.2551999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>5.9915999999999997E-2</v>
       </c>
@@ -48041,7 +48068,7 @@
         <v>-2.0059E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>5.0216999999999998E-2</v>
       </c>
@@ -48148,7 +48175,7 @@
         <v>-1.9078999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>4.2791000000000003E-2</v>
       </c>
@@ -48255,7 +48282,7 @@
         <v>-1.6659E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3.8357000000000002E-2</v>
       </c>
@@ -48362,7 +48389,7 @@
         <v>-1.5296000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>3.2912999999999998E-2</v>
       </c>
@@ -48469,7 +48496,7 @@
         <v>-1.3709000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>2.9752000000000001E-2</v>
       </c>
@@ -48576,7 +48603,7 @@
         <v>-1.2194999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>2.5516E-2</v>
       </c>
@@ -48683,7 +48710,7 @@
         <v>-1.2331E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>2.2814999999999998E-2</v>
       </c>
@@ -48790,7 +48817,7 @@
         <v>-1.0525E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>1.9345999999999999E-2</v>
       </c>
@@ -48897,7 +48924,7 @@
         <v>-9.9299999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>1.6808E-2</v>
       </c>
@@ -49004,7 +49031,7 @@
         <v>-1.0175E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>1.485E-2</v>
       </c>
@@ -49111,7 +49138,7 @@
         <v>-8.6060000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>1.2954E-2</v>
       </c>
@@ -49218,7 +49245,7 @@
         <v>-8.2100000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>1.0543E-2</v>
       </c>
@@ -49325,7 +49352,7 @@
         <v>-7.8300000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>8.8610000000000008E-3</v>
       </c>
@@ -49432,7 +49459,7 @@
         <v>-6.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>7.7120000000000001E-3</v>
       </c>
@@ -49539,7 +49566,7 @@
         <v>-6.8409999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>6.6550000000000003E-3</v>
       </c>
@@ -49646,7 +49673,7 @@
         <v>-6.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>5.4580000000000002E-3</v>
       </c>
@@ -49753,7 +49780,7 @@
         <v>-5.757E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>4.1190000000000003E-3</v>
       </c>
@@ -49860,7 +49887,7 @@
         <v>-5.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>3.2109999999999999E-3</v>
       </c>
@@ -49967,7 +49994,7 @@
         <v>-5.372E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>2.405E-3</v>
       </c>
@@ -50074,7 +50101,7 @@
         <v>-4.9950000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>1.606E-3</v>
       </c>
@@ -50181,7 +50208,7 @@
         <v>-5.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>9.2500000000000004E-4</v>
       </c>
@@ -50288,7 +50315,7 @@
         <v>-4.5030000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>6.0800000000000003E-4</v>
       </c>
@@ -50395,7 +50422,7 @@
         <v>-4.64E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>2.03E-4</v>
       </c>
@@ -50502,7 +50529,7 @@
         <v>-4.4339999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -50609,7 +50636,7 @@
         <v>-3.9760000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>-7.2599999999999997E-4</v>
       </c>
@@ -50716,7 +50743,7 @@
         <v>-4.071E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>-2.9500000000000001E-4</v>
       </c>
@@ -50823,7 +50850,7 @@
         <v>-3.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>-1.0369999999999999E-3</v>
       </c>
@@ -50930,7 +50957,7 @@
         <v>-3.5040000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>-3.4699999999999998E-4</v>
       </c>
@@ -51037,7 +51064,7 @@
         <v>-3.5959999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>-9.8700000000000003E-4</v>
       </c>
@@ -51144,7 +51171,7 @@
         <v>-3.3059999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>-8.4599999999999996E-4</v>
       </c>
@@ -51251,7 +51278,7 @@
         <v>-3.1259999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>-1.0640000000000001E-3</v>
       </c>
@@ -51358,7 +51385,7 @@
         <v>-3.1870000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>-8.3100000000000003E-4</v>
       </c>
@@ -51465,7 +51492,7 @@
         <v>-2.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>-2.81E-4</v>
       </c>
@@ -51572,7 +51599,7 @@
         <v>-2.8990000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>-6.4499999999999996E-4</v>
       </c>
@@ -51679,7 +51706,7 @@
         <v>-2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>1.93E-4</v>
       </c>
@@ -51786,7 +51813,7 @@
         <v>-2.6979999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>4.5800000000000002E-4</v>
       </c>
@@ -51893,7 +51920,7 @@
         <v>-2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>5.9400000000000002E-4</v>
       </c>
@@ -52000,7 +52027,7 @@
         <v>-2.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>1.591E-3</v>
       </c>
@@ -52107,7 +52134,7 @@
         <v>-2.895E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>2.2799999999999999E-3</v>
       </c>
@@ -52214,7 +52241,7 @@
         <v>-3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>1.8959999999999999E-3</v>
       </c>
@@ -52321,7 +52348,7 @@
         <v>-3.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>1.645E-3</v>
       </c>
@@ -52428,7 +52455,7 @@
         <v>-3.3479999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>2.0040000000000001E-3</v>
       </c>
@@ -52535,7 +52562,7 @@
         <v>-3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>4.8570000000000002E-3</v>
       </c>
@@ -52642,7 +52669,7 @@
         <v>-4.1390000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>6.4339999999999996E-3</v>
       </c>
@@ -52749,7 +52776,7 @@
         <v>-4.2050000000000004E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>5.79E-3</v>
       </c>
@@ -52856,7 +52883,7 @@
         <v>-4.1599999999999996E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>7.2969999999999997E-3</v>
       </c>
@@ -52963,7 +52990,7 @@
         <v>-3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>6.7470000000000004E-3</v>
       </c>
@@ -53070,7 +53097,7 @@
         <v>-4.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>7.561E-3</v>
       </c>
@@ -53177,7 +53204,7 @@
         <v>-3.7580000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>7.5339999999999999E-3</v>
       </c>
@@ -53284,7 +53311,7 @@
         <v>-3.715E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>7.6119999999999998E-3</v>
       </c>
@@ -53391,7 +53418,7 @@
         <v>-3.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>8.5319999999999997E-3</v>
       </c>
@@ -53498,7 +53525,7 @@
         <v>-3.434E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>7.7679999999999997E-3</v>
       </c>
@@ -53605,7 +53632,7 @@
         <v>-3.3700000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>8.1589999999999996E-3</v>
       </c>
@@ -53712,7 +53739,7 @@
         <v>-3.215E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>8.8149999999999999E-3</v>
       </c>
@@ -53819,7 +53846,7 @@
         <v>-3.1059999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>8.0459999999999993E-3</v>
       </c>
@@ -53926,7 +53953,7 @@
         <v>-3.0829999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>7.9260000000000008E-3</v>
       </c>
@@ -54033,7 +54060,7 @@
         <v>-2.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>8.685E-3</v>
       </c>
@@ -54140,7 +54167,7 @@
         <v>-2.8639999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>8.9680000000000003E-3</v>
       </c>
@@ -54247,7 +54274,7 @@
         <v>-2.7209999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>8.5629999999999994E-3</v>
       </c>
@@ -54354,7 +54381,7 @@
         <v>-2.728E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>8.5019999999999991E-3</v>
       </c>
@@ -54461,7 +54488,7 @@
         <v>-2.6619999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>8.4449999999999994E-3</v>
       </c>
@@ -54568,7 +54595,7 @@
         <v>-2.516E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>8.7519999999999994E-3</v>
       </c>
@@ -54675,7 +54702,7 @@
         <v>-2.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>9.2820000000000003E-3</v>
       </c>
@@ -54782,7 +54809,7 @@
         <v>-2.3310000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>9.0609999999999996E-3</v>
       </c>
@@ -54889,7 +54916,7 @@
         <v>-2.287E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>9.4350000000000007E-3</v>
       </c>
@@ -54996,7 +55023,7 @@
         <v>-2.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>9.5300000000000003E-3</v>
       </c>
@@ -55103,7 +55130,7 @@
         <v>-2.1259999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>9.4739999999999998E-3</v>
       </c>
@@ -55210,7 +55237,7 @@
         <v>-2.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>9.9679999999999994E-3</v>
       </c>
@@ -55317,7 +55344,7 @@
         <v>-2.176E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>1.0029E-2</v>
       </c>
@@ -55424,7 +55451,7 @@
         <v>-2.075E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>9.6589999999999992E-3</v>
       </c>
@@ -55531,7 +55558,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>9.9509999999999998E-3</v>
       </c>
@@ -55638,7 +55665,7 @@
         <v>-2.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>9.4780000000000003E-3</v>
       </c>
@@ -55745,7 +55772,7 @@
         <v>-2.1810000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>9.639E-3</v>
       </c>
@@ -55852,7 +55879,7 @@
         <v>-2.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>1.0704E-2</v>
       </c>
@@ -55959,7 +55986,7 @@
         <v>-1.9980000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>1.0614999999999999E-2</v>
       </c>
@@ -56066,7 +56093,7 @@
         <v>-2.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>1.0626E-2</v>
       </c>
@@ -56173,7 +56200,7 @@
         <v>-2.3119999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>1.1152E-2</v>
       </c>
@@ -56280,7 +56307,7 @@
         <v>-2.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>1.2142999999999999E-2</v>
       </c>
@@ -56387,7 +56414,7 @@
         <v>-2.6229999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>1.2063000000000001E-2</v>
       </c>
@@ -56494,7 +56521,7 @@
         <v>-2.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>1.1923E-2</v>
       </c>
@@ -56601,7 +56628,7 @@
         <v>-2.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>1.3277000000000001E-2</v>
       </c>
@@ -56708,7 +56735,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>1.2622E-2</v>
       </c>
@@ -56815,7 +56842,7 @@
         <v>-2.4689999999999998E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>1.0869E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="766" activeTab="1"/>
   </bookViews>
@@ -258,9 +253,6 @@
     <t>CC_csv</t>
   </si>
   <si>
-    <t>CE06ISSM-MFD37-04-DOSTAD000</t>
-  </si>
-  <si>
     <t>CE06ISSM-RID16-07-NUTNRB000</t>
   </si>
   <si>
@@ -471,12 +463,6 @@
     <t>from SBE offset_correction pdf</t>
   </si>
   <si>
-    <t>CE06ISSM-SBD17-03-CTDBPC000</t>
-  </si>
-  <si>
-    <t>CE06ISSM-SBD17-02-FLORTD000</t>
-  </si>
-  <si>
     <t>CE06ISSM-MFD00-00-CAMDSA000</t>
   </si>
   <si>
@@ -677,6 +663,15 @@
   </si>
   <si>
     <t>OL000221</t>
+  </si>
+  <si>
+    <t>CE06ISSM-MFD37-03-DOSTAD000</t>
+  </si>
+  <si>
+    <t>CE06ISSM-SBD17-06-CTDBPC000</t>
+  </si>
+  <si>
+    <t>CE06ISSM-SBD17-06-FLORTD000</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1684,7 +1679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1896,7 +1891,7 @@
   <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1915,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1956,21 +1951,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="12">
         <v>3</v>
@@ -1981,18 +1976,20 @@
       <c r="F2" s="14">
         <v>0.95416666666666661</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15">
+        <v>42496</v>
+      </c>
       <c r="H2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J2" s="18">
         <v>29</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17">
@@ -2012,9 +2009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>12</v>
@@ -2049,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>13</v>
@@ -3093,16 +3090,16 @@
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J3" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L3" s="22">
         <v>3</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>18</v>
@@ -3114,16 +3111,16 @@
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J4" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4" s="22">
         <v>3</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="22" t="s">
         <v>19</v>
@@ -3135,16 +3132,16 @@
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J5" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="22">
         <v>3</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N5" s="22" t="s">
         <v>53</v>
@@ -3156,16 +3153,16 @@
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J6" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" s="22">
         <v>3</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N6" s="22" t="s">
         <v>54</v>
@@ -3177,16 +3174,16 @@
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J7" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="22">
         <v>3</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N7" s="22" t="s">
         <v>55</v>
@@ -3198,16 +3195,16 @@
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="22">
         <v>3</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>56</v>
@@ -3219,16 +3216,16 @@
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J9" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L9" s="22">
         <v>3</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>57</v>
@@ -3240,16 +3237,16 @@
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J10" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="22">
         <v>3</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>58</v>
@@ -3261,16 +3258,16 @@
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J11" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11" s="22">
         <v>3</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>59</v>
@@ -3282,16 +3279,16 @@
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J12" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12" s="22">
         <v>3</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>60</v>
@@ -3303,16 +3300,16 @@
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J13" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="22">
         <v>3</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>61</v>
@@ -3324,16 +3321,16 @@
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J14" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" s="22">
         <v>3</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>62</v>
@@ -3345,16 +3342,16 @@
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J15" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15" s="22">
         <v>3</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>63</v>
@@ -3366,16 +3363,16 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J16" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="22">
         <v>3</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>64</v>
@@ -3387,16 +3384,16 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J17" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" s="22">
         <v>3</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>65</v>
@@ -3408,16 +3405,16 @@
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18" s="22">
         <v>3</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>66</v>
@@ -3429,16 +3426,16 @@
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="22">
         <v>3</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>67</v>
@@ -3450,16 +3447,16 @@
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20" s="22">
         <v>3</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>68</v>
@@ -3471,16 +3468,16 @@
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J21" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L21" s="22">
         <v>3</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>69</v>
@@ -3492,16 +3489,16 @@
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J22" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22" s="22">
         <v>3</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>70</v>
@@ -3513,16 +3510,16 @@
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J23" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23" s="22">
         <v>3</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>71</v>
@@ -3534,16 +3531,16 @@
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J24" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L24" s="22">
         <v>3</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>72</v>
@@ -3555,16 +3552,16 @@
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J25" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25" s="22">
         <v>3</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>73</v>
@@ -3576,16 +3573,16 @@
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L26" s="22">
         <v>3</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>74</v>
@@ -3605,10 +3602,10 @@
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J28" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28" s="22">
         <v>3</v>
@@ -3626,10 +3623,10 @@
     </row>
     <row r="29" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J29" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L29" s="22">
         <v>3</v>
@@ -3647,10 +3644,10 @@
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J30" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30" s="22">
         <v>3</v>
@@ -3668,10 +3665,10 @@
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J31" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L31" s="22">
         <v>3</v>
@@ -3689,10 +3686,10 @@
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J32" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L32" s="22">
         <v>3</v>
@@ -3710,10 +3707,10 @@
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J33" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L33" s="22">
         <v>3</v>
@@ -3731,10 +3728,10 @@
     </row>
     <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J34" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L34" s="22">
         <v>3</v>
@@ -3749,15 +3746,15 @@
         <v>124</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J35" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L35" s="22">
         <v>3</v>
@@ -3777,10 +3774,10 @@
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J36" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L36" s="22">
         <v>3</v>
@@ -3795,15 +3792,15 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J37" s="22" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L37" s="22">
         <v>3</v>
@@ -3836,23 +3833,23 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="22">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H39" s="47"/>
       <c r="I39" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5902,19 +5899,19 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="22">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>18</v>
@@ -6945,19 +6942,19 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="22">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>19</v>
@@ -9014,19 +9011,19 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="22">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>18</v>
@@ -9041,19 +9038,19 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="22">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>19</v>
@@ -9068,19 +9065,19 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="22">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>53</v>
@@ -9095,19 +9092,19 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="22">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>54</v>
@@ -9122,19 +9119,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="22">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>55</v>
@@ -9149,19 +9146,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="22">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>56</v>
@@ -9176,19 +9173,19 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="22">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>57</v>
@@ -9203,19 +9200,19 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="22">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>58</v>
@@ -9230,19 +9227,19 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="22">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>59</v>
@@ -9257,19 +9254,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="22">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>60</v>
@@ -9284,19 +9281,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" s="22">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>61</v>
@@ -9311,19 +9308,19 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="22">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>62</v>
@@ -9338,19 +9335,19 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="22">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>63</v>
@@ -9365,19 +9362,19 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="22">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>64</v>
@@ -9392,19 +9389,19 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="22">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>65</v>
@@ -9419,19 +9416,19 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" s="22">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>66</v>
@@ -9446,19 +9443,19 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="22">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>67</v>
@@ -9473,19 +9470,19 @@
         <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="22">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="22" t="s">
         <v>68</v>
@@ -9500,19 +9497,19 @@
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="22">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G62" s="22" t="s">
         <v>69</v>
@@ -9527,19 +9524,19 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="22">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>70</v>
@@ -9554,19 +9551,19 @@
         <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="22">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>71</v>
@@ -9581,19 +9578,19 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="22">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>72</v>
@@ -9608,19 +9605,19 @@
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="22">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>73</v>
@@ -9635,19 +9632,19 @@
         <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="22">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>74</v>
@@ -9672,16 +9669,16 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="22">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F69" s="43">
         <v>480</v>
@@ -9699,16 +9696,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" s="22">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F70" s="43">
         <v>480</v>
@@ -9726,16 +9723,16 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="22">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F71" s="43">
         <v>480</v>
@@ -9744,7 +9741,7 @@
         <v>77</v>
       </c>
       <c r="H71" s="46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I71"/>
     </row>
@@ -9753,28 +9750,28 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="22">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F72" s="48">
         <v>480</v>
       </c>
       <c r="G72" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="I72" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -9792,16 +9789,16 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="22">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F74" s="43">
         <v>1121</v>
@@ -9819,16 +9816,16 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="22">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F75" s="43">
         <v>1121</v>
@@ -9847,16 +9844,16 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D76" s="22">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F76" s="43">
         <v>1121</v>
@@ -9875,16 +9872,16 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="22">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F77" s="43">
         <v>1121</v>
@@ -9902,16 +9899,16 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="22">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F78" s="43">
         <v>1121</v>
@@ -9929,16 +9926,16 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D79" s="22">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F79" s="43">
         <v>1121</v>
@@ -9956,16 +9953,16 @@
         <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D80" s="22">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F80" s="43">
         <v>1121</v>
@@ -9977,7 +9974,7 @@
         <v>124</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9985,16 +9982,16 @@
         <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="22">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F81" s="43">
         <v>1121</v>
@@ -10014,16 +10011,16 @@
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" s="22">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F82" s="43">
         <v>1121</v>
@@ -10035,7 +10032,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
@@ -10043,16 +10040,16 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="22">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F83" s="43">
         <v>1121</v>
@@ -10079,25 +10076,25 @@
     </row>
     <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D85" s="22">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F85" s="43">
         <v>287</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H85" s="50">
         <v>217</v>
@@ -10108,25 +10105,25 @@
     </row>
     <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D86" s="22">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F86" s="43">
         <v>287</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H86" s="50">
         <v>240</v>
@@ -10137,25 +10134,25 @@
     </row>
     <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="22">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F87" s="43">
         <v>287</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H87" s="50">
         <v>20.07</v>
@@ -10164,109 +10161,109 @@
     </row>
     <row r="88" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="22">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F88" s="43">
         <v>287</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="22">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F89" s="43">
         <v>287</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="22">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F90" s="43">
         <v>287</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D91" s="22">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F91" s="43">
         <v>287</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I91"/>
     </row>
@@ -10285,25 +10282,25 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="22">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="H93" s="51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -11328,25 +11325,25 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="22">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G94" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H94" s="51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -12371,19 +12368,19 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="22">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F95" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>34</v>
@@ -13414,25 +13411,25 @@
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D96" s="22">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F96" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H96" s="51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -14458,25 +14455,25 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="22">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F97" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G97" s="22" t="s">
         <v>36</v>
       </c>
       <c r="H97" s="51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -15502,25 +15499,25 @@
         <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="22">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F98" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H98" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -16546,25 +16543,25 @@
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" s="22">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F99" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H99" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -17590,25 +17587,25 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="30">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G100" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H100" s="51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:1026" x14ac:dyDescent="0.25">
@@ -17623,25 +17620,25 @@
     </row>
     <row r="102" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D102" s="22">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H102" s="46">
         <v>3.2399999999999998E-2</v>
@@ -17650,25 +17647,25 @@
     </row>
     <row r="103" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="22">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" s="46">
         <v>0.6905</v>
@@ -17678,25 +17675,25 @@
     </row>
     <row r="104" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="22">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104" s="46">
         <v>-1.6577</v>
@@ -17705,25 +17702,25 @@
     </row>
     <row r="105" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D105" s="22">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" s="46">
         <v>15.418200000000001</v>
@@ -17732,22 +17729,22 @@
     </row>
     <row r="106" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D106" s="22">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G106" s="22" t="s">
         <v>22</v>
@@ -17756,56 +17753,56 @@
         <v>19706</v>
       </c>
       <c r="I106" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D107" s="22">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H107" s="46">
         <v>34</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D108" s="22">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G108" s="22" t="s">
         <v>24</v>
@@ -17817,25 +17814,25 @@
     </row>
     <row r="109" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D109" s="22">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F109" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H109" s="46">
         <v>44327</v>
@@ -17857,19 +17854,19 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="22">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G111" s="22" t="s">
         <v>22</v>
@@ -18900,19 +18897,19 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="22">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G112" s="22" t="s">
         <v>23</v>
@@ -19943,19 +19940,19 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D113" s="22">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>24</v>
@@ -20986,19 +20983,19 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D114" s="22">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F114" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>25</v>
@@ -22029,19 +22026,19 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D115" s="22">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>26</v>
@@ -23072,19 +23069,19 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D116" s="22">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>27</v>
@@ -24115,19 +24112,19 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D117" s="25">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>28</v>
@@ -24136,7 +24133,7 @@
         <v>35</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -26183,82 +26180,82 @@
     </row>
     <row r="119" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" s="22">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F119" s="43">
         <v>243</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I119"/>
     </row>
     <row r="120" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" s="22">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F120" s="43">
         <v>243</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H120" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I120"/>
     </row>
     <row r="121" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D121" s="22">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F121" s="43">
         <v>243</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I121"/>
     </row>
@@ -26277,19 +26274,19 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123" s="22">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F123" s="57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>18</v>
@@ -27321,19 +27318,19 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="22">
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F124" s="57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G124" s="22" t="s">
         <v>19</v>
@@ -29389,48 +29386,48 @@
     </row>
     <row r="126" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D126" s="22">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F126" s="25">
         <v>21517</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H126" s="34">
         <v>29000</v>
       </c>
       <c r="I126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D127" s="22">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F127" s="43">
         <v>21517</v>
@@ -29445,19 +29442,19 @@
     </row>
     <row r="128" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" s="22">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F128" s="43">
         <v>21517</v>
@@ -29472,25 +29469,25 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D129" s="22">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F129" s="43">
         <v>21517</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H129" s="46">
         <v>0.45</v>
@@ -29499,25 +29496,25 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D130" s="22">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F130" s="43">
         <v>21517</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H130" s="46">
         <v>0.45</v>
@@ -29526,25 +29523,25 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" s="22">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F131" s="43">
         <v>21517</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H131" s="46">
         <v>0.45</v>
@@ -29553,25 +29550,25 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132" s="22">
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F132" s="43">
         <v>21517</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H132" s="46">
         <v>0.45</v>
@@ -29598,16 +29595,16 @@
       <c r="G134" s="29"/>
       <c r="H134" s="29"/>
       <c r="J134" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K134" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L134" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O134" s="29"/>
     </row>
@@ -29627,19 +29624,19 @@
         <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136" s="22">
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F136" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G136" s="22" t="s">
         <v>18</v>
@@ -29654,19 +29651,19 @@
         <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D137" s="22">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F137" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>19</v>
@@ -29681,19 +29678,19 @@
         <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D138" s="22">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F138" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>53</v>
@@ -29708,19 +29705,19 @@
         <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" s="22">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F139" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>54</v>
@@ -29735,19 +29732,19 @@
         <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D140" s="22">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>55</v>
@@ -29762,19 +29759,19 @@
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" s="22">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>56</v>
@@ -29789,19 +29786,19 @@
         <v>75</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D142" s="22">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>57</v>
@@ -29816,19 +29813,19 @@
         <v>75</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="22">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F143" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>58</v>
@@ -29843,19 +29840,19 @@
         <v>75</v>
       </c>
       <c r="B144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D144" s="22">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F144" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G144" s="22" t="s">
         <v>59</v>
@@ -29870,19 +29867,19 @@
         <v>75</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D145" s="22">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F145" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G145" s="22" t="s">
         <v>60</v>
@@ -29897,19 +29894,19 @@
         <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D146" s="22">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F146" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G146" s="22" t="s">
         <v>61</v>
@@ -29924,19 +29921,19 @@
         <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D147" s="22">
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F147" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G147" s="22" t="s">
         <v>62</v>
@@ -29951,19 +29948,19 @@
         <v>75</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D148" s="22">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F148" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G148" s="22" t="s">
         <v>63</v>
@@ -29978,19 +29975,19 @@
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D149" s="22">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F149" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>64</v>
@@ -30005,19 +30002,19 @@
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D150" s="22">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F150" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G150" s="22" t="s">
         <v>65</v>
@@ -30032,19 +30029,19 @@
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D151" s="22">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G151" s="22" t="s">
         <v>66</v>
@@ -30059,19 +30056,19 @@
         <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D152" s="22">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G152" s="22" t="s">
         <v>67</v>
@@ -30086,19 +30083,19 @@
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D153" s="22">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G153" s="22" t="s">
         <v>68</v>
@@ -30113,19 +30110,19 @@
         <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D154" s="22">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F154" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G154" s="22" t="s">
         <v>69</v>
@@ -30140,19 +30137,19 @@
         <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D155" s="22">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F155" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G155" s="22" t="s">
         <v>70</v>
@@ -30167,19 +30164,19 @@
         <v>75</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D156" s="22">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G156" s="22" t="s">
         <v>71</v>
@@ -30194,19 +30191,19 @@
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D157" s="22">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G157" s="22" t="s">
         <v>72</v>
@@ -30221,19 +30218,19 @@
         <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D158" s="22">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G158" s="22" t="s">
         <v>73</v>
@@ -30248,19 +30245,19 @@
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D159" s="22">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G159" s="22" t="s">
         <v>74</v>
@@ -30282,19 +30279,19 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D161" s="22">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F161" s="43">
         <v>484</v>
@@ -30309,19 +30306,19 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D162" s="22">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F162" s="43">
         <v>484</v>
@@ -30336,19 +30333,19 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="22" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D163" s="22">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F163" s="43">
         <v>484</v>
@@ -30357,37 +30354,37 @@
         <v>77</v>
       </c>
       <c r="H163" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I163"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="22" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D164" s="22">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F164" s="43">
         <v>484</v>
       </c>
       <c r="G164" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H164" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="I164" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="I164" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -30407,13 +30404,13 @@
         <v>40</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L166" s="22">
         <v>3</v>
       </c>
       <c r="M166" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N166" s="22" t="s">
         <v>32</v>
@@ -30426,7 +30423,7 @@
         <v>40</v>
       </c>
       <c r="K167" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L167" s="22">
         <v>3</v>
@@ -30443,7 +30440,7 @@
         <v>40</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L168" s="22">
         <v>3</v>
@@ -30460,7 +30457,7 @@
         <v>40</v>
       </c>
       <c r="K169" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L169" s="22">
         <v>3</v>
@@ -30477,7 +30474,7 @@
         <v>40</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L170" s="22">
         <v>3</v>
@@ -30494,7 +30491,7 @@
         <v>40</v>
       </c>
       <c r="K171" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L171" s="22">
         <v>3</v>
@@ -30511,7 +30508,7 @@
         <v>40</v>
       </c>
       <c r="K172" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L172" s="22">
         <v>3</v>
@@ -30528,7 +30525,7 @@
         <v>40</v>
       </c>
       <c r="K173" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L173" s="22">
         <v>3</v>
@@ -30553,19 +30550,19 @@
       <c r="H175" s="28"/>
       <c r="I175"/>
       <c r="J175" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L175" s="22">
         <v>3</v>
       </c>
       <c r="M175" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N175" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -30573,17 +30570,17 @@
       <c r="H176" s="28"/>
       <c r="I176"/>
       <c r="J176" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L176" s="22">
         <v>3</v>
       </c>
       <c r="M176" s="54"/>
       <c r="N176" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
@@ -30591,17 +30588,17 @@
       <c r="H177" s="28"/>
       <c r="I177"/>
       <c r="J177" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K177" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L177" s="22">
         <v>3</v>
       </c>
       <c r="M177" s="54"/>
       <c r="N177" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
@@ -30609,17 +30606,17 @@
       <c r="H178" s="28"/>
       <c r="I178"/>
       <c r="J178" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L178" s="22">
         <v>3</v>
       </c>
       <c r="M178" s="54"/>
       <c r="N178" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
@@ -30627,10 +30624,10 @@
       <c r="H179" s="28"/>
       <c r="I179" s="31"/>
       <c r="J179" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K179" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L179" s="22">
         <v>3</v>
@@ -30645,17 +30642,17 @@
       <c r="H180" s="28"/>
       <c r="I180" s="32"/>
       <c r="J180" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L180" s="22">
         <v>3</v>
       </c>
       <c r="M180" s="54"/>
       <c r="N180" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
@@ -30663,10 +30660,10 @@
       <c r="H181" s="28"/>
       <c r="I181" s="32"/>
       <c r="J181" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K181" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L181" s="22">
         <v>3</v>
@@ -30681,17 +30678,17 @@
       <c r="H182" s="28"/>
       <c r="I182" s="33"/>
       <c r="J182" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K182" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L182" s="22">
         <v>3</v>
       </c>
       <c r="M182" s="54"/>
       <c r="N182" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
@@ -30710,13 +30707,13 @@
         <v>30</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L184" s="22">
         <v>3</v>
       </c>
       <c r="M184" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N184" s="22" t="s">
         <v>22</v>
@@ -31743,7 +31740,7 @@
         <v>30</v>
       </c>
       <c r="K185" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L185" s="22">
         <v>3</v>
@@ -32774,7 +32771,7 @@
         <v>30</v>
       </c>
       <c r="K186" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L186" s="22">
         <v>3</v>
@@ -33805,7 +33802,7 @@
         <v>30</v>
       </c>
       <c r="K187" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L187" s="22">
         <v>3</v>
@@ -34837,7 +34834,7 @@
         <v>30</v>
       </c>
       <c r="K188" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L188" s="22">
         <v>3</v>
@@ -35869,7 +35866,7 @@
         <v>30</v>
       </c>
       <c r="K189" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L189" s="22">
         <v>3</v>
@@ -36903,13 +36900,13 @@
       <c r="G190" s="25"/>
       <c r="H190" s="28"/>
       <c r="J190" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K190" s="25" t="s">
         <v>30</v>
       </c>
       <c r="L190" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M190" s="25">
         <v>3</v>
@@ -37952,83 +37949,83 @@
     </row>
     <row r="192" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B192" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D192" s="22">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F192" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" s="55">
         <v>599.74130000000002</v>
       </c>
       <c r="I192" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B193" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D193" s="22">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F193" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H193" s="55">
         <v>10.060029999999999</v>
       </c>
       <c r="I193" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D194" s="22">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F194" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G194" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H194" s="55">
         <v>-1105.32</v>
@@ -38037,25 +38034,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B195" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D195" s="22">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F195" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G195" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H195" s="55">
         <v>2.9624000000000001E-2</v>
@@ -38064,25 +38061,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B196" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D196" s="22">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F196" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H196" s="55">
         <v>0</v>
@@ -38091,25 +38088,25 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B197" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D197" s="22">
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F197" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H197" s="55">
         <v>0</v>
@@ -38120,54 +38117,54 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B198" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D198" s="22">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F198" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H198" s="55">
         <v>-0.17299999999999999</v>
       </c>
       <c r="I198" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D199" s="22">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F199" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H199" s="55">
         <v>1</v>
@@ -38178,25 +38175,25 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D200" s="22">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F200" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H200" s="55">
         <v>27.808949999999999</v>
@@ -38205,25 +38202,25 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D201" s="22">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F201" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H201" s="55">
         <v>0.493062</v>
@@ -38232,25 +38229,25 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B202" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D202" s="22">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F202" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H202" s="55">
         <v>19.843260000000001</v>
@@ -38259,25 +38256,25 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D203" s="22">
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F203" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H203" s="55">
         <v>41.173560000000002</v>
@@ -38286,25 +38283,25 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B204" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D204" s="22">
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F204" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G204" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H204" s="55">
         <v>5.7935990000000004</v>
@@ -38313,25 +38310,25 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B205" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D205" s="22">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F205" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H205" s="55">
         <v>-3983.797</v>
@@ -38340,25 +38337,25 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D206" s="22">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F206" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H206" s="55">
         <v>-9856.866</v>
@@ -38367,25 +38364,25 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D207" s="22">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F207" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H207" s="55">
         <v>0</v>
@@ -38394,25 +38391,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D208" s="22">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F208" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H208" s="55">
         <v>8388.6</v>
@@ -38421,25 +38418,25 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D209" s="22">
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F209" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H209" s="55">
         <v>125829.1</v>
@@ -38458,19 +38455,19 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D211" s="22">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F211" s="43">
         <v>11084</v>
@@ -38485,19 +38482,19 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B212" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D212" s="22">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F212" s="43">
         <v>11084</v>
@@ -38522,19 +38519,19 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B214" t="s">
         <v>174</v>
       </c>
-      <c r="B214" t="s">
-        <v>177</v>
-      </c>
       <c r="C214" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D214" s="29">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F214" s="48">
         <v>55097</v>
@@ -38542,7 +38539,7 @@
       <c r="G214" s="41"/>
       <c r="H214" s="29"/>
       <c r="I214" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -38581,48 +38578,48 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B219" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D219" s="22">
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F219" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B220" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D220" s="22">
         <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F220" s="42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -38636,94 +38633,94 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B222" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D222" s="22">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F222" s="42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I222" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B223" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D223" s="22">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F223" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I223" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B224" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D224" s="22">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F224" s="42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I224" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B225" t="s">
+        <v>174</v>
+      </c>
+      <c r="C225" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="B225" t="s">
-        <v>177</v>
-      </c>
-      <c r="C225" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="D225" s="22">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F225" s="42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I225" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE06ISSM_00003.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="766" activeTab="1"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="214">
   <si>
     <t>Ref Des</t>
   </si>
@@ -672,6 +677,12 @@
   </si>
   <si>
     <t>CE06ISSM-SBD17-06-FLORTD000</t>
+  </si>
+  <si>
+    <t>A01755</t>
+  </si>
+  <si>
+    <t>A00219</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1679,7 +1690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2009,9 +2020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,744 +3100,950 @@
       <c r="AML2"/>
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J3" s="24" t="s">
+      <c r="A3" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="22">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="44">
+      <c r="H3" s="44">
         <v>47.133266999999996</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J4" s="24" t="s">
+      <c r="A4" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="22">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="44">
+      <c r="H4" s="44">
         <v>-124.270917</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J5" s="24" t="s">
+      <c r="A5" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="22">
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="E5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="45">
+      <c r="H5" s="45">
         <v>1.21059323E-3</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J6" s="24" t="s">
+      <c r="A6" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="22">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="E6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="45">
+      <c r="H6" s="45">
         <v>2.8481035700000002E-4</v>
       </c>
-      <c r="P6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J7" s="24" t="s">
+      <c r="A7" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="22">
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="45">
+      <c r="H7" s="45">
         <v>-2.1758474099999998E-6</v>
       </c>
-      <c r="P7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J8" s="24" t="s">
+      <c r="A8" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="22">
+      <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="45">
+      <c r="H8" s="45">
         <v>2.29626898E-7</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J9" s="24" t="s">
+      <c r="A9" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="22">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="E9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="45">
+      <c r="H9" s="45">
         <v>101.261408</v>
       </c>
-      <c r="P9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J10" s="24" t="s">
+      <c r="A10" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="22">
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="E10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="45">
+      <c r="H10" s="45">
         <v>-41.7521238</v>
       </c>
-      <c r="P10"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J11" s="24" t="s">
+      <c r="A11" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="22">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="45">
+      <c r="H11" s="45">
         <v>-1.19072143</v>
       </c>
-      <c r="P11"/>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J12" s="24" t="s">
+      <c r="A12" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="22">
+      <c r="D12" s="22">
         <v>3</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="E12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="45">
+      <c r="H12" s="45">
         <v>518916.52299999999</v>
       </c>
-      <c r="P12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J13" s="24" t="s">
+      <c r="A13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="22">
+      <c r="D13" s="22">
         <v>3</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="E13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="G13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="45">
+      <c r="H13" s="45">
         <v>-156.07004599999999</v>
       </c>
-      <c r="P13"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J14" s="24" t="s">
+      <c r="A14" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="22">
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="45">
+      <c r="H14" s="45">
         <v>-1.4203462899999999</v>
       </c>
-      <c r="P14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J15" s="24" t="s">
+      <c r="A15" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="22">
+      <c r="D15" s="22">
         <v>3</v>
       </c>
-      <c r="M15" s="43" t="s">
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="45">
+      <c r="H15" s="45">
         <v>25.026875</v>
       </c>
-      <c r="P15"/>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J16" s="24" t="s">
+      <c r="A16" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="22">
+      <c r="D16" s="22">
         <v>3</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="E16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="45">
+      <c r="H16" s="45">
         <v>7.7499999999999997E-4</v>
       </c>
-      <c r="P16"/>
+      <c r="I16"/>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J17" s="24" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="22">
+      <c r="D17" s="22">
         <v>3</v>
       </c>
-      <c r="M17" s="43" t="s">
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="G17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="45">
+      <c r="H17" s="45">
         <v>0</v>
       </c>
-      <c r="P17"/>
+      <c r="I17"/>
     </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="24" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="22">
+      <c r="D18" s="22">
         <v>3</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="E18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="45">
+      <c r="H18" s="45">
         <v>-2.6785821699999999</v>
       </c>
-      <c r="P18"/>
+      <c r="I18"/>
     </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J19" s="24" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="22">
+      <c r="D19" s="22">
         <v>3</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="45">
+      <c r="H19" s="45">
         <v>6.2104943900000002E-4</v>
       </c>
-      <c r="P19"/>
+      <c r="I19"/>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J20" s="24" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="22">
+      <c r="D20" s="22">
         <v>3</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="E20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="45">
+      <c r="H20" s="45">
         <v>8.9875144600000006E-12</v>
       </c>
-      <c r="P20"/>
+      <c r="I20"/>
     </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J21" s="24" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="22">
+      <c r="D21" s="22">
         <v>3</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="E21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="45">
+      <c r="H21" s="45">
         <v>-0.97856695599999999</v>
       </c>
-      <c r="P21"/>
+      <c r="I21"/>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J22" s="24" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="22">
+      <c r="D22" s="22">
         <v>3</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="45">
+      <c r="H22" s="45">
         <v>0.15168742700000001</v>
       </c>
-      <c r="P22"/>
+      <c r="I22"/>
     </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J23" s="24" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="22">
+      <c r="D23" s="22">
         <v>3</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="G23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="45">
+      <c r="H23" s="45">
         <v>-1.15940192E-4</v>
       </c>
-      <c r="P23"/>
+      <c r="I23"/>
     </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J24" s="24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="22">
+      <c r="D24" s="22">
         <v>3</v>
       </c>
-      <c r="M24" s="43" t="s">
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O24" s="45">
+      <c r="H24" s="45">
         <v>3.1292238999999998E-5</v>
       </c>
-      <c r="P24"/>
+      <c r="I24"/>
     </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J25" s="24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="22">
+      <c r="D25" s="22">
         <v>3</v>
       </c>
-      <c r="M25" s="43" t="s">
+      <c r="E25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="45">
+      <c r="H25" s="45">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="P25"/>
+      <c r="I25"/>
     </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J26" s="24" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="22">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="E26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="45">
+      <c r="H26" s="45">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="P26"/>
+      <c r="I26"/>
     </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="O27" s="23"/>
-      <c r="P27"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="F27"/>
+      <c r="H27" s="23"/>
+      <c r="I27"/>
     </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J28" s="22" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="22">
+      <c r="D28" s="22">
         <v>3</v>
       </c>
-      <c r="M28" s="43">
+      <c r="E28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="43">
         <v>996</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="G28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="46">
+      <c r="H28" s="46">
         <v>47</v>
       </c>
-      <c r="P28"/>
+      <c r="I28"/>
     </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J29" s="22" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="22">
+      <c r="D29" s="22">
         <v>3</v>
       </c>
-      <c r="M29" s="43">
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="43">
         <v>996</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="46">
+      <c r="H29" s="46">
         <v>1.734E-6</v>
       </c>
-      <c r="P29"/>
+      <c r="I29"/>
     </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J30" s="22" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L30" s="22">
+      <c r="D30" s="22">
         <v>3</v>
       </c>
-      <c r="M30" s="43">
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="43">
         <v>996</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="G30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="46">
+      <c r="H30" s="46">
         <v>49</v>
       </c>
-      <c r="P30"/>
+      <c r="I30"/>
     </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J31" s="22" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="22">
+      <c r="D31" s="22">
         <v>3</v>
       </c>
-      <c r="M31" s="43">
+      <c r="E31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="43">
         <v>996</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="46">
+      <c r="H31" s="46">
         <v>1.17E-2</v>
       </c>
-      <c r="P31"/>
+      <c r="I31"/>
     </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J32" s="22" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="22">
+      <c r="D32" s="22">
         <v>3</v>
       </c>
-      <c r="M32" s="43">
+      <c r="E32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="43">
         <v>996</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="G32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="46">
+      <c r="H32" s="46">
         <v>44</v>
       </c>
-      <c r="P32"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J33" s="22" t="s">
+      <c r="A33" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="22">
+      <c r="D33" s="22">
         <v>3</v>
       </c>
-      <c r="M33" s="43">
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="43">
         <v>996</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="46">
+      <c r="H33" s="46">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="P33"/>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J34" s="22" t="s">
+      <c r="A34" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="22">
+      <c r="D34" s="22">
         <v>3</v>
       </c>
-      <c r="M34" s="43">
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="43">
         <v>996</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="46">
+      <c r="H34" s="46">
         <v>124</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="I34" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J35" s="22" t="s">
+      <c r="A35" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="22">
+      <c r="D35" s="22">
         <v>3</v>
       </c>
-      <c r="M35" s="43">
+      <c r="E35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="43">
         <v>996</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="G35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="46">
+      <c r="H35" s="46">
         <v>700</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="I35" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J36" s="22" t="s">
+      <c r="A36" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="22">
+      <c r="D36" s="22">
         <v>3</v>
       </c>
-      <c r="M36" s="43">
+      <c r="E36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="43">
         <v>996</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="G36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O36" s="46">
+      <c r="H36" s="46">
         <v>1.0760000000000001</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="I36" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J37" s="22" t="s">
+      <c r="A37" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L37" s="22">
+      <c r="D37" s="22">
         <v>3</v>
       </c>
-      <c r="M37" s="43">
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="43">
         <v>996</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="G37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="46">
+      <c r="H37" s="46">
         <v>3.9E-2</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="I37" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38"/>
-      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="H38" s="23"/>
-      <c r="I38"/>
+      <c r="G38"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
